--- a/data/trans_bre/P36B08_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P36B08_R-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,14; 12,96</t>
+          <t>5,12; 12,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,74; 11,23</t>
+          <t>3,78; 11,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 6,87</t>
+          <t>-1,03; 7,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,76; 21,14</t>
+          <t>7,64; 19,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,97; 15,98</t>
+          <t>5,0; 16,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 9,38</t>
+          <t>-1,34; 9,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,6; 11,3</t>
+          <t>4,86; 11,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,02; 10,85</t>
+          <t>5,01; 11,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,17; 8,74</t>
+          <t>3,08; 8,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,28; 19,03</t>
+          <t>7,7; 19,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,13; 15,98</t>
+          <t>7,04; 16,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,42; 12,95</t>
+          <t>4,35; 12,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 10,09</t>
+          <t>-0,73; 10,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,06; 15,34</t>
+          <t>4,14; 14,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 8,46</t>
+          <t>-0,98; 8,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 15,97</t>
+          <t>-1,08; 17,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,14; 21,48</t>
+          <t>5,24; 20,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 11,12</t>
+          <t>-1,21; 11,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,62; 10,16</t>
+          <t>5,5; 10,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,38; 10,6</t>
+          <t>6,14; 10,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,78; 7,14</t>
+          <t>2,74; 7,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,71; 16,36</t>
+          <t>8,59; 16,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,87; 15,12</t>
+          <t>8,38; 14,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,84; 10,02</t>
+          <t>3,76; 9,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">

--- a/data/trans_bre/P36B08_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P36B08_R-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,12; 12,22</t>
+          <t>5,37; 12,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,78; 11,35</t>
+          <t>3,96; 11,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 7,22</t>
+          <t>-1,31; 7,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 4,44</t>
+          <t>-0,76; 4,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,64; 19,45</t>
+          <t>8,04; 20,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,0; 16,04</t>
+          <t>5,32; 16,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 9,72</t>
+          <t>-1,66; 9,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 4,88</t>
+          <t>-0,82; 4,98</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,86; 11,81</t>
+          <t>4,71; 11,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,01; 11,09</t>
+          <t>5,22; 11,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,08; 8,67</t>
+          <t>2,86; 8,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,44; 3,92</t>
+          <t>0,71; 4,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,7; 19,72</t>
+          <t>7,25; 18,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,04; 16,32</t>
+          <t>7,42; 16,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,35; 12,86</t>
+          <t>4,09; 13,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,46; 4,21</t>
+          <t>0,75; 4,33</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 10,98</t>
+          <t>-1,34; 10,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,14; 14,98</t>
+          <t>4,24; 14,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 8,79</t>
+          <t>-1,39; 8,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 1,65</t>
+          <t>-2,39; 1,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 17,4</t>
+          <t>-1,91; 16,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,24; 20,86</t>
+          <t>5,44; 20,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 11,68</t>
+          <t>-1,78; 11,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 1,72</t>
+          <t>-2,43; 1,91</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,5; 10,03</t>
+          <t>5,65; 10,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,14; 10,33</t>
+          <t>6,51; 10,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,74; 7,1</t>
+          <t>3,1; 7,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,65</t>
+          <t>0,4; 2,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,59; 16,17</t>
+          <t>8,72; 16,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,38; 14,75</t>
+          <t>9,02; 15,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,76; 9,94</t>
+          <t>4,22; 10,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,83</t>
+          <t>0,43; 2,86</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P36B08_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P36B08_R-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>1,88%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 4,52</t>
+          <t>-0,79; 4,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 4,98</t>
+          <t>-0,81; 5,09</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,19</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>2,22%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,71; 4,01</t>
+          <t>-0,14; 4,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,75; 4,33</t>
+          <t>-0,15; 4,53</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,4%</t>
+          <t>-0,34%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 1,83</t>
+          <t>-2,42; 1,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 1,91</t>
+          <t>-2,47; 1,93</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>1,58%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,67</t>
+          <t>0,01; 2,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,86</t>
+          <t>0,02; 3,02</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P36B08_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P36B08_R-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,37; 12,88</t>
+          <t>4,71; 12,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,96; 11,36</t>
+          <t>3,99; 11,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 7,1</t>
+          <t>-1,39; 6,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 4,59</t>
+          <t>-0,56; 4,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,04; 20,74</t>
+          <t>7,3; 19,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,32; 16,28</t>
+          <t>5,35; 15,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 9,5</t>
+          <t>-1,7; 9,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 5,09</t>
+          <t>-0,59; 4,99</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,71; 11,21</t>
+          <t>4,43; 11,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,22; 11,01</t>
+          <t>5,05; 11,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,86; 8,71</t>
+          <t>3,06; 8,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 4,19</t>
+          <t>-0,19; 3,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,25; 18,71</t>
+          <t>6,99; 18,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,42; 16,46</t>
+          <t>7,04; 16,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,09; 13,04</t>
+          <t>4,33; 12,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 4,53</t>
+          <t>-0,2; 4,23</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 10,31</t>
+          <t>-1,55; 9,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,24; 14,84</t>
+          <t>4,34; 15,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 8,37</t>
+          <t>-1,42; 8,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 1,86</t>
+          <t>-2,7; 1,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 16,46</t>
+          <t>-2,23; 15,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,44; 20,48</t>
+          <t>5,58; 20,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 11,04</t>
+          <t>-1,75; 10,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 1,93</t>
+          <t>-2,77; 1,62</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,65; 10,17</t>
+          <t>5,62; 10,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,51; 10,59</t>
+          <t>6,47; 10,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,1; 7,17</t>
+          <t>2,87; 6,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,01; 2,82</t>
+          <t>0,05; 2,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,72; 16,46</t>
+          <t>8,73; 16,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,02; 15,16</t>
+          <t>8,97; 15,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,22; 10,12</t>
+          <t>3,91; 9,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,02; 3,02</t>
+          <t>0,06; 3,0</t>
         </is>
       </c>
     </row>
